--- a/Salaires/data/indice_fp.xlsx
+++ b/Salaires/data/indice_fp.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gasto\Documents\GitHub\Statjunior\projets-r-statjunior\smic-smb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gasto\Documents\GitHub\Statjunior\Salaires\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E383B1B9-7FFF-44C0-B327-8DBF76DC3A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABBDD53-ED55-41AE-8BD8-17D1F9587E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -32,9 +45,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,7 +76,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,19 +391,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B641"/>
+  <dimension ref="A1:B645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A618" workbookViewId="0">
-      <selection activeCell="D640" sqref="D640"/>
+    <sheetView tabSelected="1" topLeftCell="A621" workbookViewId="0">
+      <selection activeCell="J637" sqref="J637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -5518,6 +5528,39 @@
       </c>
       <c r="B641">
         <v>672.24827944160063</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A642" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B642">
+        <v>672.24827944160063</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A643" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B643">
+        <v>672.24827944160063</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A644" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B644">
+        <v>672.24827944160063</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A645" s="1">
+        <v>45108</v>
+      </c>
+      <c r="B645">
+        <f>B644*1.015</f>
+        <v>682.33200363322453</v>
       </c>
     </row>
   </sheetData>
